--- a/src/main/resources/companyList_update.xlsx
+++ b/src/main/resources/companyList_update.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="130">
   <si>
     <t>0001</t>
   </si>
@@ -393,8 +393,35 @@
     <t>축산물,무역(수입축산물)</t>
   </si>
   <si>
-    <t>업데이트 테스트</t>
+    <t>업데이트 테스트1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트 테스트2</t>
+  </si>
+  <si>
+    <t>업데이트 테스트3</t>
+  </si>
+  <si>
+    <t>업데이트 테스트4</t>
+  </si>
+  <si>
+    <t>업데이트 테스트5</t>
+  </si>
+  <si>
+    <t>업데이트 테스트6</t>
+  </si>
+  <si>
+    <t>업데이트 테스트7</t>
+  </si>
+  <si>
+    <t>업데이트 테스트8</t>
+  </si>
+  <si>
+    <t>업데이트 테스트9</t>
+  </si>
+  <si>
+    <t>업데이트 테스트10</t>
   </si>
 </sst>
 </file>
@@ -797,7 +824,7 @@
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -907,7 +934,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>114</v>
@@ -978,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>115</v>
@@ -1043,7 +1070,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>116</v>
@@ -1108,7 +1135,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>115</v>
@@ -1173,7 +1200,7 @@
         <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>115</v>
@@ -1238,7 +1265,7 @@
         <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>117</v>
@@ -1309,7 +1336,7 @@
         <v>80</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>115</v>
@@ -1372,7 +1399,7 @@
         <v>88</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>118</v>
@@ -1443,7 +1470,7 @@
         <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>119</v>
